--- a/ch_01_excel_skills_needed_for_ai/ch_01.xlsx
+++ b/ch_01_excel_skills_needed_for_ai/ch_01.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27521"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\excel-power-tools-book\ch_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\excel-power-tools-book\ch_01_excel_skills_needed_for_ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A26FD818-1BD8-428A-90B4-E53BA3575722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887CF6BA-87C4-423A-9638-EA7C1823738E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{87CA9F02-30B6-4D4C-8EE1-17D7C3AC2388}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="tools" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Thunder Drill X200</t>
   </si>
@@ -59,15 +59,6 @@
     <t>Ultra Grinder G10</t>
   </si>
   <si>
-    <t>Tornado Blower B800</t>
-  </si>
-  <si>
-    <t>Fusion Nailer F1</t>
-  </si>
-  <si>
-    <t>Mega Cutter C4</t>
-  </si>
-  <si>
     <t>tool_name</t>
   </si>
   <si>
@@ -75,6 +66,9 @@
   </si>
   <si>
     <t>unit_price</t>
+  </si>
+  <si>
+    <t>Total units sold:</t>
   </si>
 </sst>
 </file>
@@ -128,6 +122,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9C3CB3E3-50B7-4763-AB43-BFFD07AAA280}" name="tool_sales" displayName="tool_sales" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{9C3CB3E3-50B7-4763-AB43-BFFD07AAA280}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4480EB8C-A2AE-49FB-929D-2B89C328967A}" name="tool_name"/>
+    <tableColumn id="2" xr3:uid="{B4D8FF90-9E5A-4729-B72C-E1F1D5D80A4F}" name="units_sold"/>
+    <tableColumn id="3" xr3:uid="{6D6C2AA0-1C6E-4A5F-B627-E5A00BED1E07}" name="unit_price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,27 +453,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B86B710-2677-4944-BD71-AC4B60ED7774}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="18.58984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.73828125" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.03515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -478,8 +489,12 @@
         <v>80</v>
       </c>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -490,8 +505,13 @@
         <v>120</v>
       </c>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="E3" s="1"/>
+      <c r="F3">
+        <f>SUM(tool_sales[units_sold])</f>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -502,8 +522,9 @@
         <v>60</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -514,8 +535,9 @@
         <v>50</v>
       </c>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -526,8 +548,9 @@
         <v>90</v>
       </c>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -538,8 +561,9 @@
         <v>100</v>
       </c>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.85">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -550,44 +574,12 @@
         <v>150</v>
       </c>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>65</v>
-      </c>
-      <c r="C9">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>110</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.85">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <v>130</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>